--- a/Java Full Stack - Progressi.xlsx
+++ b/Java Full Stack - Progressi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veglia Marco\git\progettostudiojavafullstack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090C335C-17F4-4D96-9929-3061612E319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA27AA-4940-4DF0-8187-D4232CEDBAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FB63945-407C-488F-868C-26FA3E323837}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>Lezione</t>
   </si>
@@ -207,9 +208,6 @@
     <t>Misc.</t>
   </si>
   <si>
-    <t>ui_try</t>
-  </si>
-  <si>
     <t>Try &amp; Catch</t>
   </si>
   <si>
@@ -217,6 +215,36 @@
   </si>
   <si>
     <t>Try &amp; catch block</t>
+  </si>
+  <si>
+    <t>Enumerator</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Enumarators</t>
+  </si>
+  <si>
+    <t>Array e Loops</t>
+  </si>
+  <si>
+    <t>Array &amp; Loops</t>
+  </si>
+  <si>
+    <t>Callback method</t>
+  </si>
+  <si>
+    <t>Callbacks</t>
+  </si>
+  <si>
+    <t>misc_try</t>
+  </si>
+  <si>
+    <t>misc_tte</t>
+  </si>
+  <si>
+    <t>misc_al</t>
   </si>
 </sst>
 </file>
@@ -322,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,14 +402,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DABB449-5234-4193-A036-9E78197E7DF8}">
-  <dimension ref="A2:O14"/>
+  <dimension ref="A2:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +801,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="str" cm="1">
         <f t="array" ref="I3">SUM(IF(G3:G300=CHAR(80),1.5,0)*1) &amp; "%"</f>
-        <v>18%</v>
+        <v>22,5%</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -921,7 +955,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -959,19 +993,20 @@
       <c r="H12" s="17" t="s">
         <v>40</v>
       </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:15" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>42</v>
@@ -979,29 +1014,92 @@
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="19" t="s">
+    </row>
+    <row r="15" spans="1:15" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="C17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java Full Stack - Progressi.xlsx
+++ b/Java Full Stack - Progressi.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veglia Marco\git\progettostudiojavafullstack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA27AA-4940-4DF0-8187-D4232CEDBAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620B1854-C0D3-41B6-9C00-AE5E15FD9A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FB63945-407C-488F-868C-26FA3E323837}"/>
+    <workbookView xWindow="4224" yWindow="552" windowWidth="17280" windowHeight="8880" xr2:uid="{4FB63945-407C-488F-868C-26FA3E323837}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>Lezione</t>
   </si>
@@ -245,6 +244,24 @@
   </si>
   <si>
     <t>misc_al</t>
+  </si>
+  <si>
+    <t>Array Lists</t>
+  </si>
+  <si>
+    <t>Boxing, Autoboxing, Unboxing</t>
+  </si>
+  <si>
+    <t>misc_arsbx</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Stack &amp; LinkedList</t>
+  </si>
+  <si>
+    <t>Stackk</t>
   </si>
 </sst>
 </file>
@@ -350,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,6 +432,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,16 +760,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DABB449-5234-4193-A036-9E78197E7DF8}">
-  <dimension ref="A2:O19"/>
+  <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
@@ -801,7 +825,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="str" cm="1">
         <f t="array" ref="I3">SUM(IF(G3:G300=CHAR(80),1.5,0)*1) &amp; "%"</f>
-        <v>22,5%</v>
+        <v>27%</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1077,12 +1101,13 @@
       <c r="H16" s="19" t="s">
         <v>52</v>
       </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1094,12 +1119,72 @@
       <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F19" s="11"/>
+    <row r="18" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="C18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="C19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="C20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java Full Stack - Progressi.xlsx
+++ b/Java Full Stack - Progressi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veglia Marco\git\progettostudiojavafullstack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620B1854-C0D3-41B6-9C00-AE5E15FD9A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F36EF-769F-4A2A-85E8-DC10ED9ACE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="552" windowWidth="17280" windowHeight="8880" xr2:uid="{4FB63945-407C-488F-868C-26FA3E323837}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FB63945-407C-488F-868C-26FA3E323837}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>Lezione</t>
   </si>
@@ -258,17 +258,25 @@
     <t>Box</t>
   </si>
   <si>
-    <t>Stack &amp; LinkedList</t>
-  </si>
-  <si>
-    <t>Stackk</t>
+    <t>Stackk
+Linked</t>
+  </si>
+  <si>
+    <t>Stack &amp; LinkedList &amp; List Iterator</t>
+  </si>
+  <si>
+    <t>Stack &amp; LinkedList
+List Iterator</t>
+  </si>
+  <si>
+    <t>Generics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +321,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,19 +448,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -760,20 +781,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DABB449-5234-4193-A036-9E78197E7DF8}">
-  <dimension ref="A2:O23"/>
+  <dimension ref="A2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -824,7 +845,7 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="6" t="str" cm="1">
-        <f t="array" ref="I3">SUM(IF(G3:G300=CHAR(80),1.5,0)*1) &amp; "%"</f>
+        <f t="array" ref="I3">SUM(IF(G3:G301=CHAR(80),1.5,0)*1) &amp; "%"</f>
         <v>27%</v>
       </c>
     </row>
@@ -1103,7 +1124,7 @@
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="22.2" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1123,8 +1144,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="22" t="s">
+    <row r="18" spans="2:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1133,18 +1154,18 @@
       <c r="E18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="2:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1153,19 +1174,19 @@
       <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>61</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="C20" s="22" t="s">
-        <v>62</v>
+    <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -1173,20 +1194,64 @@
       <c r="E20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>63</v>
+      <c r="F20" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="25"/>
+      <c r="H20" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
